--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlmr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlmr\Desktop\git\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32875499-41B3-4B04-BDD1-F0958FDCFE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626E19B-5400-4A75-BAA0-93BD5ADDF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
